--- a/game_excel/linklist.xlsx
+++ b/game_excel/linklist.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>联盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远征商店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -640,6 +644,17 @@
       </c>
       <c r="B20">
         <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5002113</v>
       </c>
     </row>
   </sheetData>
